--- a/Code/Results/Cases/Case_3_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_124/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9833885538595331</v>
+        <v>1.020705105263572</v>
       </c>
       <c r="D2">
-        <v>1.004826294696856</v>
+        <v>1.026649187597143</v>
       </c>
       <c r="E2">
-        <v>0.9919185100324349</v>
+        <v>1.021655281550852</v>
       </c>
       <c r="F2">
-        <v>0.9618013181249635</v>
+        <v>1.033991353004535</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036755782834123</v>
+        <v>1.030318399236568</v>
       </c>
       <c r="J2">
-        <v>1.006077722139514</v>
+        <v>1.025900707851144</v>
       </c>
       <c r="K2">
-        <v>1.016218798587713</v>
+        <v>1.029471217959963</v>
       </c>
       <c r="L2">
-        <v>1.003491592977257</v>
+        <v>1.024491970833195</v>
       </c>
       <c r="M2">
-        <v>0.9738197825227086</v>
+        <v>1.036792110909094</v>
       </c>
       <c r="N2">
-        <v>1.005515724781397</v>
+        <v>1.012624279800934</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9894805253379489</v>
+        <v>1.021903196879089</v>
       </c>
       <c r="D3">
-        <v>1.009583367594079</v>
+        <v>1.027576811208665</v>
       </c>
       <c r="E3">
-        <v>0.9968898689789292</v>
+        <v>1.022679554830699</v>
       </c>
       <c r="F3">
-        <v>0.9744809723885651</v>
+        <v>1.036285496694253</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039225797807031</v>
+        <v>1.030670969569198</v>
       </c>
       <c r="J3">
-        <v>1.010262128471515</v>
+        <v>1.026734806261003</v>
       </c>
       <c r="K3">
-        <v>1.020095078515907</v>
+        <v>1.030206075272806</v>
       </c>
       <c r="L3">
-        <v>1.007562699798888</v>
+        <v>1.025322147436535</v>
       </c>
       <c r="M3">
-        <v>0.9854511337283756</v>
+        <v>1.038891395419815</v>
       </c>
       <c r="N3">
-        <v>1.006965674974309</v>
+        <v>1.012907789684852</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9933084053646525</v>
+        <v>1.02267761201774</v>
       </c>
       <c r="D4">
-        <v>1.012569391650072</v>
+        <v>1.028175921504303</v>
       </c>
       <c r="E4">
-        <v>1.000019682003635</v>
+        <v>1.023341936307388</v>
       </c>
       <c r="F4">
-        <v>0.9822976779688194</v>
+        <v>1.037763094351598</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040750755825762</v>
+        <v>1.030896520502329</v>
       </c>
       <c r="J4">
-        <v>1.012884845656467</v>
+        <v>1.027273228892184</v>
       </c>
       <c r="K4">
-        <v>1.02251844572732</v>
+        <v>1.030679834863818</v>
       </c>
       <c r="L4">
-        <v>1.010117869486729</v>
+        <v>1.025858339136397</v>
       </c>
       <c r="M4">
-        <v>0.992614556570808</v>
+        <v>1.040242608526113</v>
       </c>
       <c r="N4">
-        <v>1.00787371784476</v>
+        <v>1.013090606757572</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9948918987462076</v>
+        <v>1.023002981386308</v>
       </c>
       <c r="D5">
-        <v>1.013803915749368</v>
+        <v>1.028427521273367</v>
       </c>
       <c r="E5">
-        <v>1.001315799389763</v>
+        <v>1.023620310347898</v>
       </c>
       <c r="F5">
-        <v>0.9854993453739658</v>
+        <v>1.038382670672587</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04137533193459</v>
+        <v>1.030990726257877</v>
       </c>
       <c r="J5">
-        <v>1.013968241176812</v>
+        <v>1.027499274665899</v>
       </c>
       <c r="K5">
-        <v>1.023518050323525</v>
+        <v>1.030878589210967</v>
       </c>
       <c r="L5">
-        <v>1.011174167528602</v>
+        <v>1.026083520162919</v>
       </c>
       <c r="M5">
-        <v>0.9955469060459399</v>
+        <v>1.04080897900019</v>
       </c>
       <c r="N5">
-        <v>1.008248615477571</v>
+        <v>1.013167312481795</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9951563066939028</v>
+        <v>1.023057601030056</v>
       </c>
       <c r="D6">
-        <v>1.01401001196777</v>
+        <v>1.028469750456049</v>
       </c>
       <c r="E6">
-        <v>1.001532302376798</v>
+        <v>1.02366704530708</v>
       </c>
       <c r="F6">
-        <v>0.986032186648495</v>
+        <v>1.038486607200316</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04147926013193</v>
+        <v>1.031006507795162</v>
       </c>
       <c r="J6">
-        <v>1.014149052950722</v>
+        <v>1.02753721082036</v>
       </c>
       <c r="K6">
-        <v>1.023684794288605</v>
+        <v>1.03091193673598</v>
       </c>
       <c r="L6">
-        <v>1.01135050356349</v>
+        <v>1.026121315402708</v>
       </c>
       <c r="M6">
-        <v>0.99603482210179</v>
+        <v>1.040903977632675</v>
       </c>
       <c r="N6">
-        <v>1.008311171426667</v>
+        <v>1.013180182907087</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9933296633116606</v>
+        <v>1.022681960378629</v>
       </c>
       <c r="D7">
-        <v>1.012585967595528</v>
+        <v>1.028179284434431</v>
       </c>
       <c r="E7">
-        <v>1.000037076563135</v>
+        <v>1.023345656309085</v>
       </c>
       <c r="F7">
-        <v>0.9823407805752963</v>
+        <v>1.037771379418999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040759165069689</v>
+        <v>1.030897781699754</v>
       </c>
       <c r="J7">
-        <v>1.01289939606386</v>
+        <v>1.02727625052939</v>
       </c>
       <c r="K7">
-        <v>1.022531876447631</v>
+        <v>1.030682492252404</v>
       </c>
       <c r="L7">
-        <v>1.010132052809225</v>
+        <v>1.025861348931838</v>
       </c>
       <c r="M7">
-        <v>0.9926540404374289</v>
+        <v>1.040250182947668</v>
       </c>
       <c r="N7">
-        <v>1.007878753663325</v>
+        <v>1.013091632293516</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9854719614098009</v>
+        <v>1.021110180269121</v>
       </c>
       <c r="D8">
-        <v>1.006453843800563</v>
+        <v>1.026962916899311</v>
       </c>
       <c r="E8">
-        <v>0.9936173590031049</v>
+        <v>1.022001522251602</v>
       </c>
       <c r="F8">
-        <v>0.9661722457847799</v>
+        <v>1.034768114547154</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037606380813024</v>
+        <v>1.030438089320833</v>
       </c>
       <c r="J8">
-        <v>1.007510151902102</v>
+        <v>1.026182865160489</v>
       </c>
       <c r="K8">
-        <v>1.017547097625247</v>
+        <v>1.02971992893477</v>
       </c>
       <c r="L8">
-        <v>1.004884487015035</v>
+        <v>1.024772739056566</v>
       </c>
       <c r="M8">
-        <v>0.9778308068334171</v>
+        <v>1.037503078975409</v>
       </c>
       <c r="N8">
-        <v>1.006012231430577</v>
+        <v>1.012720224870104</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9706728293893481</v>
+        <v>1.01833396256332</v>
       </c>
       <c r="D9">
-        <v>0.9948776759215571</v>
+        <v>1.024810777511521</v>
       </c>
       <c r="E9">
-        <v>0.9815787208285114</v>
+        <v>1.019629863701291</v>
       </c>
       <c r="F9">
-        <v>0.9342496317404736</v>
+        <v>1.02942165516363</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031434245747224</v>
+        <v>1.02960810586051</v>
       </c>
       <c r="J9">
-        <v>0.9973054752227113</v>
+        <v>1.024246132596182</v>
       </c>
       <c r="K9">
-        <v>1.008054409572964</v>
+        <v>1.028010293275922</v>
       </c>
       <c r="L9">
-        <v>0.9949779125393373</v>
+        <v>1.022846784315859</v>
       </c>
       <c r="M9">
-        <v>0.9485078575510423</v>
+        <v>1.032605842744724</v>
       </c>
       <c r="N9">
-        <v>1.002472482935851</v>
+        <v>1.012060869478796</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9600351199662543</v>
+        <v>1.016478495162028</v>
       </c>
       <c r="D10">
-        <v>0.9865329682080398</v>
+        <v>1.023369945803</v>
       </c>
       <c r="E10">
-        <v>0.9729653001367173</v>
+        <v>1.018046484087756</v>
       </c>
       <c r="F10">
-        <v>0.9098290208043505</v>
+        <v>1.025818378529811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026809346273153</v>
+        <v>1.02904116740109</v>
       </c>
       <c r="J10">
-        <v>0.9899292707440054</v>
+        <v>1.022948034490629</v>
       </c>
       <c r="K10">
-        <v>1.001149707007823</v>
+        <v>1.026861285435581</v>
       </c>
       <c r="L10">
-        <v>0.9878404546989531</v>
+        <v>1.021557479212489</v>
       </c>
       <c r="M10">
-        <v>0.9260424626706866</v>
+        <v>1.029300753666374</v>
       </c>
       <c r="N10">
-        <v>0.9999113718044036</v>
+        <v>1.011617952937474</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9552086957289694</v>
+        <v>1.015673894273775</v>
       </c>
       <c r="D11">
-        <v>0.9827390007249978</v>
+        <v>1.022744565069668</v>
       </c>
       <c r="E11">
-        <v>0.9690678136912432</v>
+        <v>1.017360283769074</v>
       </c>
       <c r="F11">
-        <v>0.8982431607164895</v>
+        <v>1.024248325050152</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024656508019057</v>
+        <v>1.028792400365991</v>
       </c>
       <c r="J11">
-        <v>0.9865713161104347</v>
+        <v>1.022384253912313</v>
       </c>
       <c r="K11">
-        <v>0.997993944502364</v>
+        <v>1.026361514502574</v>
       </c>
       <c r="L11">
-        <v>0.9845976315220493</v>
+        <v>1.020997891789603</v>
       </c>
       <c r="M11">
-        <v>0.9153781049757934</v>
+        <v>1.027859547825072</v>
       </c>
       <c r="N11">
-        <v>0.9987451822650214</v>
+        <v>1.011425357721418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9533788557224081</v>
+        <v>1.015374848517087</v>
       </c>
       <c r="D12">
-        <v>0.9812990895618697</v>
+        <v>1.02251204282278</v>
       </c>
       <c r="E12">
-        <v>0.9675918175547285</v>
+        <v>1.017105306722564</v>
       </c>
       <c r="F12">
-        <v>0.8937557164920055</v>
+        <v>1.023663615330607</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023830918124267</v>
+        <v>1.028699500432461</v>
       </c>
       <c r="J12">
-        <v>0.9852963034128294</v>
+        <v>1.022174582142023</v>
       </c>
       <c r="K12">
-        <v>0.9967935589658246</v>
+        <v>1.02617553644528</v>
       </c>
       <c r="L12">
-        <v>0.9833674081947376</v>
+        <v>1.020789835877527</v>
       </c>
       <c r="M12">
-        <v>0.9112468878578086</v>
+        <v>1.027322660486506</v>
       </c>
       <c r="N12">
-        <v>0.9983023744541559</v>
+        <v>1.011353696440033</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.953773115453997</v>
+        <v>1.015439003129124</v>
       </c>
       <c r="D13">
-        <v>0.9816094093672811</v>
+        <v>1.022561930016088</v>
       </c>
       <c r="E13">
-        <v>0.9679097617403635</v>
+        <v>1.017160004372097</v>
       </c>
       <c r="F13">
-        <v>0.8947272413503164</v>
+        <v>1.023789107201511</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024009248106706</v>
+        <v>1.028719450331522</v>
       </c>
       <c r="J13">
-        <v>0.9855711100979795</v>
+        <v>1.022219569211046</v>
       </c>
       <c r="K13">
-        <v>0.9970523832806473</v>
+        <v>1.026215444858862</v>
       </c>
       <c r="L13">
-        <v>0.9836325108291568</v>
+        <v>1.020834473693552</v>
       </c>
       <c r="M13">
-        <v>0.9121413166637656</v>
+        <v>1.02743789593457</v>
       </c>
       <c r="N13">
-        <v>0.9983978136292272</v>
+        <v>1.011369073607098</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9550582236652909</v>
+        <v>1.015649178784184</v>
       </c>
       <c r="D14">
-        <v>0.9826206263018653</v>
+        <v>1.022725349382569</v>
       </c>
       <c r="E14">
-        <v>0.9689464050632414</v>
+        <v>1.017339209178348</v>
       </c>
       <c r="F14">
-        <v>0.8978762020110476</v>
+        <v>1.024200024090492</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024588816407183</v>
+        <v>1.02878473138702</v>
       </c>
       <c r="J14">
-        <v>0.9864665091392241</v>
+        <v>1.022366927675308</v>
       </c>
       <c r="K14">
-        <v>0.9978953173048301</v>
+        <v>1.026346148475036</v>
       </c>
       <c r="L14">
-        <v>0.9844964837955132</v>
+        <v>1.020980697927719</v>
       </c>
       <c r="M14">
-        <v>0.9150402888970337</v>
+        <v>1.027815200622363</v>
       </c>
       <c r="N14">
-        <v>0.9987087830612099</v>
+        <v>1.01141943669072</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9558449710824241</v>
+        <v>1.015778650779648</v>
       </c>
       <c r="D15">
-        <v>0.9832394868807869</v>
+        <v>1.022826007115593</v>
       </c>
       <c r="E15">
-        <v>0.9695812611887303</v>
+        <v>1.017449610915355</v>
       </c>
       <c r="F15">
-        <v>0.8997908737011414</v>
+        <v>1.024453000423633</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024942354572345</v>
+        <v>1.028824887245862</v>
       </c>
       <c r="J15">
-        <v>0.9870144161416099</v>
+        <v>1.022457685711148</v>
       </c>
       <c r="K15">
-        <v>0.9984108289298852</v>
+        <v>1.026426633998766</v>
       </c>
       <c r="L15">
-        <v>0.9850253053965354</v>
+        <v>1.021070764868284</v>
       </c>
       <c r="M15">
-        <v>0.9168028775650016</v>
+        <v>1.028047462511792</v>
       </c>
       <c r="N15">
-        <v>0.9988990697642154</v>
+        <v>1.011450450733558</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.960350471806065</v>
+        <v>1.016531868754318</v>
       </c>
       <c r="D16">
-        <v>0.9867806737840658</v>
+        <v>1.02341141850924</v>
       </c>
       <c r="E16">
-        <v>0.9732201802190105</v>
+        <v>1.018092012281884</v>
       </c>
       <c r="F16">
-        <v>0.9105741188986608</v>
+        <v>1.025922367029785</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026948792084443</v>
+        <v>1.029057607813501</v>
       </c>
       <c r="J16">
-        <v>0.9901484251885283</v>
+        <v>1.022985414702752</v>
       </c>
       <c r="K16">
-        <v>1.001355387619331</v>
+        <v>1.026894405998582</v>
       </c>
       <c r="L16">
-        <v>0.9880522363654085</v>
+        <v>1.02159458929802</v>
       </c>
       <c r="M16">
-        <v>0.926728191478099</v>
+        <v>1.029396185559603</v>
       </c>
       <c r="N16">
-        <v>0.9999874794905702</v>
+        <v>1.01163071768895</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.963115127198354</v>
+        <v>1.017004025265852</v>
       </c>
       <c r="D17">
-        <v>0.9889513691149617</v>
+        <v>1.023778229617478</v>
       </c>
       <c r="E17">
-        <v>0.975455879513175</v>
+        <v>1.018494814155665</v>
       </c>
       <c r="F17">
-        <v>0.917047722928128</v>
+        <v>1.026841401640496</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028165062127618</v>
+        <v>1.029202706503062</v>
       </c>
       <c r="J17">
-        <v>0.9920684393213846</v>
+        <v>1.023315988532681</v>
       </c>
       <c r="K17">
-        <v>1.003155934432847</v>
+        <v>1.027187223780863</v>
       </c>
       <c r="L17">
-        <v>0.9899083914929537</v>
+        <v>1.021922817437518</v>
       </c>
       <c r="M17">
-        <v>0.932685327925548</v>
+        <v>1.030239473679205</v>
       </c>
       <c r="N17">
-        <v>1.000654233170522</v>
+        <v>1.011743576814379</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9647067652707124</v>
+        <v>1.017279313516683</v>
       </c>
       <c r="D18">
-        <v>0.9902003443194819</v>
+        <v>1.023992040735529</v>
       </c>
       <c r="E18">
-        <v>0.9767439725236918</v>
+        <v>1.018729705331257</v>
       </c>
       <c r="F18">
-        <v>0.9207286542606283</v>
+        <v>1.027376515654036</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028860264993571</v>
+        <v>1.029287024029014</v>
       </c>
       <c r="J18">
-        <v>0.9931727668164105</v>
+        <v>1.023508643323138</v>
       </c>
       <c r="K18">
-        <v>1.004190404114542</v>
+        <v>1.027357803294642</v>
       </c>
       <c r="L18">
-        <v>0.9909765844935197</v>
+        <v>1.022114141217362</v>
       </c>
       <c r="M18">
-        <v>0.9360720183204954</v>
+        <v>1.030730379825314</v>
       </c>
       <c r="N18">
-        <v>1.001037700206279</v>
+        <v>1.011809327619309</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9652460290746635</v>
+        <v>1.01737316074371</v>
       </c>
       <c r="D19">
-        <v>0.990623396467754</v>
+        <v>1.024064920563918</v>
       </c>
       <c r="E19">
-        <v>0.9771805558629512</v>
+        <v>1.018809787702368</v>
       </c>
       <c r="F19">
-        <v>0.9219684570574052</v>
+        <v>1.027558817137908</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02909498562548</v>
+        <v>1.029315720637294</v>
       </c>
       <c r="J19">
-        <v>0.9935467527515333</v>
+        <v>1.023574306038636</v>
       </c>
       <c r="K19">
-        <v>1.004540544905884</v>
+        <v>1.027415929955435</v>
       </c>
       <c r="L19">
-        <v>0.9913384315868914</v>
+        <v>1.022179356389397</v>
       </c>
       <c r="M19">
-        <v>0.9372126126367964</v>
+        <v>1.030897603027523</v>
       </c>
       <c r="N19">
-        <v>1.001167557692485</v>
+        <v>1.011831733749115</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9628206977947539</v>
+        <v>1.016953379030581</v>
       </c>
       <c r="D20">
-        <v>0.9887202711869731</v>
+        <v>1.023738889138539</v>
       </c>
       <c r="E20">
-        <v>0.9752176802668721</v>
+        <v>1.018451603180413</v>
       </c>
       <c r="F20">
-        <v>0.9163631936413484</v>
+        <v>1.026742895841521</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028036060758237</v>
+        <v>1.02918717151093</v>
       </c>
       <c r="J20">
-        <v>0.9918640718857746</v>
+        <v>1.023280538011105</v>
       </c>
       <c r="K20">
-        <v>1.002964403800676</v>
+        <v>1.027155829589059</v>
       </c>
       <c r="L20">
-        <v>0.9897107587140277</v>
+        <v>1.021887614736743</v>
       </c>
       <c r="M20">
-        <v>0.9320554693672326</v>
+        <v>1.030149097451547</v>
       </c>
       <c r="N20">
-        <v>1.000583266131819</v>
+        <v>1.011731476176558</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9546808519792374</v>
+        <v>1.015587292335274</v>
       </c>
       <c r="D21">
-        <v>0.9823237273362911</v>
+        <v>1.022677232778429</v>
       </c>
       <c r="E21">
-        <v>0.9686419489753798</v>
+        <v>1.017286440389754</v>
       </c>
       <c r="F21">
-        <v>0.896954298633605</v>
+        <v>1.024079061711569</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024418895683801</v>
+        <v>1.028765521490623</v>
       </c>
       <c r="J21">
-        <v>0.9862036301466733</v>
+        <v>1.022323541448996</v>
       </c>
       <c r="K21">
-        <v>0.9976479029819577</v>
+        <v>1.026307668959441</v>
       </c>
       <c r="L21">
-        <v>0.9842428006660913</v>
+        <v>1.020937644090503</v>
       </c>
       <c r="M21">
-        <v>0.9141915898638439</v>
+        <v>1.027704137205098</v>
       </c>
       <c r="N21">
-        <v>0.9986174858507625</v>
+        <v>1.011404609418946</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9493456798425417</v>
+        <v>1.014727328638965</v>
       </c>
       <c r="D22">
-        <v>0.9781220809984869</v>
+        <v>1.02200840613832</v>
       </c>
       <c r="E22">
-        <v>0.9643416893163458</v>
+        <v>1.016553323961247</v>
       </c>
       <c r="F22">
-        <v>0.8836623534761221</v>
+        <v>1.022395373499426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021992142331414</v>
+        <v>1.028497537050144</v>
       </c>
       <c r="J22">
-        <v>0.982482165750971</v>
+        <v>1.021720341830101</v>
       </c>
       <c r="K22">
-        <v>0.9941397697250505</v>
+        <v>1.025772422492601</v>
       </c>
       <c r="L22">
-        <v>0.9806542602878336</v>
+        <v>1.020339199638171</v>
       </c>
       <c r="M22">
-        <v>0.9019538079289759</v>
+        <v>1.026157849076502</v>
       </c>
       <c r="N22">
-        <v>0.9973250641734992</v>
+        <v>1.011198383957277</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9521961528878686</v>
+        <v>1.015183313018073</v>
       </c>
       <c r="D23">
-        <v>0.9803679359506829</v>
+        <v>1.022363090372079</v>
       </c>
       <c r="E23">
-        <v>0.9666382948034187</v>
+        <v>1.016942014520878</v>
       </c>
       <c r="F23">
-        <v>0.8908255734600519</v>
+        <v>1.023288781711939</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023294468611772</v>
+        <v>1.028639874725279</v>
       </c>
       <c r="J23">
-        <v>0.9844716338497531</v>
+        <v>1.022040252638051</v>
       </c>
       <c r="K23">
-        <v>0.9960165095067333</v>
+        <v>1.026056355226079</v>
       </c>
       <c r="L23">
-        <v>0.9825720271105195</v>
+        <v>1.02065655750343</v>
       </c>
       <c r="M23">
-        <v>0.908549189252118</v>
+        <v>1.02697843818906</v>
       </c>
       <c r="N23">
-        <v>0.9980159722396864</v>
+        <v>1.01130777582254</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.962953802183603</v>
+        <v>1.016976264232682</v>
       </c>
       <c r="D24">
-        <v>0.9888247471508204</v>
+        <v>1.023756665851562</v>
       </c>
       <c r="E24">
-        <v>0.9753253613272658</v>
+        <v>1.018471128534563</v>
       </c>
       <c r="F24">
-        <v>0.9166727942823969</v>
+        <v>1.026787409284736</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028094394646844</v>
+        <v>1.029194192081861</v>
       </c>
       <c r="J24">
-        <v>0.9919564646694864</v>
+        <v>1.023296557080785</v>
       </c>
       <c r="K24">
-        <v>1.003050996712244</v>
+        <v>1.027170015941063</v>
       </c>
       <c r="L24">
-        <v>0.9898001049743477</v>
+        <v>1.021903521711966</v>
       </c>
       <c r="M24">
-        <v>0.932340345201769</v>
+        <v>1.030189937572576</v>
       </c>
       <c r="N24">
-        <v>1.000615349814975</v>
+        <v>1.011736944175078</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9746239159911999</v>
+        <v>1.019052482822012</v>
       </c>
       <c r="D25">
-        <v>0.9979718035657245</v>
+        <v>1.025368213001057</v>
       </c>
       <c r="E25">
-        <v>0.9847863241418743</v>
+        <v>1.020243382105151</v>
       </c>
       <c r="F25">
-        <v>0.942982882136181</v>
+        <v>1.030810529807987</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033111626591821</v>
+        <v>1.029825061129775</v>
       </c>
       <c r="J25">
-        <v>1.000036541382995</v>
+        <v>1.024748034211153</v>
       </c>
       <c r="K25">
-        <v>1.010601686476282</v>
+        <v>1.028453891410406</v>
       </c>
       <c r="L25">
-        <v>0.9976254950832022</v>
+        <v>1.023345617648376</v>
       </c>
       <c r="M25">
-        <v>0.9565358812663382</v>
+        <v>1.03387882258319</v>
       </c>
       <c r="N25">
-        <v>1.003420337664434</v>
+        <v>1.01223191400704</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_124/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_124/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020705105263572</v>
+        <v>0.9833885538595332</v>
       </c>
       <c r="D2">
-        <v>1.026649187597143</v>
+        <v>1.004826294696856</v>
       </c>
       <c r="E2">
-        <v>1.021655281550852</v>
+        <v>0.9919185100324349</v>
       </c>
       <c r="F2">
-        <v>1.033991353004535</v>
+        <v>0.9618013181249641</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030318399236568</v>
+        <v>1.036755782834123</v>
       </c>
       <c r="J2">
-        <v>1.025900707851144</v>
+        <v>1.006077722139514</v>
       </c>
       <c r="K2">
-        <v>1.029471217959963</v>
+        <v>1.016218798587713</v>
       </c>
       <c r="L2">
-        <v>1.024491970833195</v>
+        <v>1.003491592977257</v>
       </c>
       <c r="M2">
-        <v>1.036792110909094</v>
+        <v>0.9738197825227091</v>
       </c>
       <c r="N2">
-        <v>1.012624279800934</v>
+        <v>1.005515724781397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021903196879089</v>
+        <v>0.9894805253379503</v>
       </c>
       <c r="D3">
-        <v>1.027576811208665</v>
+        <v>1.009583367594081</v>
       </c>
       <c r="E3">
-        <v>1.022679554830699</v>
+        <v>0.9968898689789304</v>
       </c>
       <c r="F3">
-        <v>1.036285496694253</v>
+        <v>0.9744809723885645</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030670969569198</v>
+        <v>1.039225797807031</v>
       </c>
       <c r="J3">
-        <v>1.026734806261003</v>
+        <v>1.010262128471517</v>
       </c>
       <c r="K3">
-        <v>1.030206075272806</v>
+        <v>1.020095078515908</v>
       </c>
       <c r="L3">
-        <v>1.025322147436535</v>
+        <v>1.007562699798889</v>
       </c>
       <c r="M3">
-        <v>1.038891395419815</v>
+        <v>0.985451133728375</v>
       </c>
       <c r="N3">
-        <v>1.012907789684852</v>
+        <v>1.006965674974309</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02267761201774</v>
+        <v>0.993308405364652</v>
       </c>
       <c r="D4">
-        <v>1.028175921504303</v>
+        <v>1.012569391650072</v>
       </c>
       <c r="E4">
-        <v>1.023341936307388</v>
+        <v>1.000019682003635</v>
       </c>
       <c r="F4">
-        <v>1.037763094351598</v>
+        <v>0.9822976779688194</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030896520502329</v>
+        <v>1.040750755825762</v>
       </c>
       <c r="J4">
-        <v>1.027273228892184</v>
+        <v>1.012884845656467</v>
       </c>
       <c r="K4">
-        <v>1.030679834863818</v>
+        <v>1.02251844572732</v>
       </c>
       <c r="L4">
-        <v>1.025858339136397</v>
+        <v>1.010117869486729</v>
       </c>
       <c r="M4">
-        <v>1.040242608526113</v>
+        <v>0.9926145565708079</v>
       </c>
       <c r="N4">
-        <v>1.013090606757572</v>
+        <v>1.00787371784476</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023002981386308</v>
+        <v>0.9948918987462068</v>
       </c>
       <c r="D5">
-        <v>1.028427521273367</v>
+        <v>1.013803915749367</v>
       </c>
       <c r="E5">
-        <v>1.023620310347898</v>
+        <v>1.001315799389762</v>
       </c>
       <c r="F5">
-        <v>1.038382670672587</v>
+        <v>0.9854993453739656</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030990726257877</v>
+        <v>1.04137533193459</v>
       </c>
       <c r="J5">
-        <v>1.027499274665899</v>
+        <v>1.013968241176811</v>
       </c>
       <c r="K5">
-        <v>1.030878589210967</v>
+        <v>1.023518050323525</v>
       </c>
       <c r="L5">
-        <v>1.026083520162919</v>
+        <v>1.011174167528601</v>
       </c>
       <c r="M5">
-        <v>1.04080897900019</v>
+        <v>0.9955469060459398</v>
       </c>
       <c r="N5">
-        <v>1.013167312481795</v>
+        <v>1.008248615477571</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023057601030056</v>
+        <v>0.9951563066939028</v>
       </c>
       <c r="D6">
-        <v>1.028469750456049</v>
+        <v>1.01401001196777</v>
       </c>
       <c r="E6">
-        <v>1.02366704530708</v>
+        <v>1.001532302376798</v>
       </c>
       <c r="F6">
-        <v>1.038486607200316</v>
+        <v>0.9860321866484948</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031006507795162</v>
+        <v>1.04147926013193</v>
       </c>
       <c r="J6">
-        <v>1.02753721082036</v>
+        <v>1.014149052950722</v>
       </c>
       <c r="K6">
-        <v>1.03091193673598</v>
+        <v>1.023684794288605</v>
       </c>
       <c r="L6">
-        <v>1.026121315402708</v>
+        <v>1.01135050356349</v>
       </c>
       <c r="M6">
-        <v>1.040903977632675</v>
+        <v>0.9960348221017897</v>
       </c>
       <c r="N6">
-        <v>1.013180182907087</v>
+        <v>1.008311171426667</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022681960378629</v>
+        <v>0.9933296633116613</v>
       </c>
       <c r="D7">
-        <v>1.028179284434431</v>
+        <v>1.012585967595529</v>
       </c>
       <c r="E7">
-        <v>1.023345656309085</v>
+        <v>1.000037076563135</v>
       </c>
       <c r="F7">
-        <v>1.037771379418999</v>
+        <v>0.9823407805752965</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030897781699754</v>
+        <v>1.04075916506969</v>
       </c>
       <c r="J7">
-        <v>1.02727625052939</v>
+        <v>1.012899396063861</v>
       </c>
       <c r="K7">
-        <v>1.030682492252404</v>
+        <v>1.022531876447631</v>
       </c>
       <c r="L7">
-        <v>1.025861348931838</v>
+        <v>1.010132052809225</v>
       </c>
       <c r="M7">
-        <v>1.040250182947668</v>
+        <v>0.9926540404374292</v>
       </c>
       <c r="N7">
-        <v>1.013091632293516</v>
+        <v>1.007878753663325</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021110180269121</v>
+        <v>0.9854719614098006</v>
       </c>
       <c r="D8">
-        <v>1.026962916899311</v>
+        <v>1.006453843800562</v>
       </c>
       <c r="E8">
-        <v>1.022001522251602</v>
+        <v>0.9936173590031047</v>
       </c>
       <c r="F8">
-        <v>1.034768114547154</v>
+        <v>0.9661722457847798</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030438089320833</v>
+        <v>1.037606380813024</v>
       </c>
       <c r="J8">
-        <v>1.026182865160489</v>
+        <v>1.007510151902102</v>
       </c>
       <c r="K8">
-        <v>1.02971992893477</v>
+        <v>1.017547097625247</v>
       </c>
       <c r="L8">
-        <v>1.024772739056566</v>
+        <v>1.004884487015035</v>
       </c>
       <c r="M8">
-        <v>1.037503078975409</v>
+        <v>0.9778308068334168</v>
       </c>
       <c r="N8">
-        <v>1.012720224870104</v>
+        <v>1.006012231430577</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01833396256332</v>
+        <v>0.9706728293893476</v>
       </c>
       <c r="D9">
-        <v>1.024810777511521</v>
+        <v>0.9948776759215573</v>
       </c>
       <c r="E9">
-        <v>1.019629863701291</v>
+        <v>0.9815787208285112</v>
       </c>
       <c r="F9">
-        <v>1.02942165516363</v>
+        <v>0.9342496317404733</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02960810586051</v>
+        <v>1.031434245747224</v>
       </c>
       <c r="J9">
-        <v>1.024246132596182</v>
+        <v>0.997305475222711</v>
       </c>
       <c r="K9">
-        <v>1.028010293275922</v>
+        <v>1.008054409572964</v>
       </c>
       <c r="L9">
-        <v>1.022846784315859</v>
+        <v>0.9949779125393372</v>
       </c>
       <c r="M9">
-        <v>1.032605842744724</v>
+        <v>0.9485078575510422</v>
       </c>
       <c r="N9">
-        <v>1.012060869478796</v>
+        <v>1.002472482935851</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016478495162028</v>
+        <v>0.9600351199662543</v>
       </c>
       <c r="D10">
-        <v>1.023369945803</v>
+        <v>0.9865329682080397</v>
       </c>
       <c r="E10">
-        <v>1.018046484087756</v>
+        <v>0.9729653001367169</v>
       </c>
       <c r="F10">
-        <v>1.025818378529811</v>
+        <v>0.9098290208043505</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02904116740109</v>
+        <v>1.026809346273153</v>
       </c>
       <c r="J10">
-        <v>1.022948034490629</v>
+        <v>0.9899292707440053</v>
       </c>
       <c r="K10">
-        <v>1.026861285435581</v>
+        <v>1.001149707007823</v>
       </c>
       <c r="L10">
-        <v>1.021557479212489</v>
+        <v>0.9878404546989529</v>
       </c>
       <c r="M10">
-        <v>1.029300753666374</v>
+        <v>0.9260424626706866</v>
       </c>
       <c r="N10">
-        <v>1.011617952937474</v>
+        <v>0.9999113718044037</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015673894273775</v>
+        <v>0.9552086957289707</v>
       </c>
       <c r="D11">
-        <v>1.022744565069668</v>
+        <v>0.9827390007249993</v>
       </c>
       <c r="E11">
-        <v>1.017360283769074</v>
+        <v>0.9690678136912443</v>
       </c>
       <c r="F11">
-        <v>1.024248325050152</v>
+        <v>0.8982431607164917</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028792400365991</v>
+        <v>1.024656508019058</v>
       </c>
       <c r="J11">
-        <v>1.022384253912313</v>
+        <v>0.986571316110436</v>
       </c>
       <c r="K11">
-        <v>1.026361514502574</v>
+        <v>0.9979939445023654</v>
       </c>
       <c r="L11">
-        <v>1.020997891789603</v>
+        <v>0.9845976315220504</v>
       </c>
       <c r="M11">
-        <v>1.027859547825072</v>
+        <v>0.9153781049757956</v>
       </c>
       <c r="N11">
-        <v>1.011425357721418</v>
+        <v>0.9987451822650218</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015374848517087</v>
+        <v>0.9533788557224073</v>
       </c>
       <c r="D12">
-        <v>1.02251204282278</v>
+        <v>0.981299089561869</v>
       </c>
       <c r="E12">
-        <v>1.017105306722564</v>
+        <v>0.9675918175547278</v>
       </c>
       <c r="F12">
-        <v>1.023663615330607</v>
+        <v>0.8937557164920055</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028699500432461</v>
+        <v>1.023830918124267</v>
       </c>
       <c r="J12">
-        <v>1.022174582142023</v>
+        <v>0.9852963034128286</v>
       </c>
       <c r="K12">
-        <v>1.02617553644528</v>
+        <v>0.9967935589658239</v>
       </c>
       <c r="L12">
-        <v>1.020789835877527</v>
+        <v>0.9833674081947366</v>
       </c>
       <c r="M12">
-        <v>1.027322660486506</v>
+        <v>0.9112468878578086</v>
       </c>
       <c r="N12">
-        <v>1.011353696440033</v>
+        <v>0.9983023744541558</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015439003129124</v>
+        <v>0.9537731154539976</v>
       </c>
       <c r="D13">
-        <v>1.022561930016088</v>
+        <v>0.9816094093672819</v>
       </c>
       <c r="E13">
-        <v>1.017160004372097</v>
+        <v>0.9679097617403638</v>
       </c>
       <c r="F13">
-        <v>1.023789107201511</v>
+        <v>0.8947272413503163</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028719450331522</v>
+        <v>1.024009248106706</v>
       </c>
       <c r="J13">
-        <v>1.022219569211046</v>
+        <v>0.98557111009798</v>
       </c>
       <c r="K13">
-        <v>1.026215444858862</v>
+        <v>0.9970523832806479</v>
       </c>
       <c r="L13">
-        <v>1.020834473693552</v>
+        <v>0.9836325108291571</v>
       </c>
       <c r="M13">
-        <v>1.02743789593457</v>
+        <v>0.9121413166637654</v>
       </c>
       <c r="N13">
-        <v>1.011369073607098</v>
+        <v>0.9983978136292274</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015649178784184</v>
+        <v>0.9550582236652904</v>
       </c>
       <c r="D14">
-        <v>1.022725349382569</v>
+        <v>0.9826206263018646</v>
       </c>
       <c r="E14">
-        <v>1.017339209178348</v>
+        <v>0.9689464050632406</v>
       </c>
       <c r="F14">
-        <v>1.024200024090492</v>
+        <v>0.8978762020110473</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02878473138702</v>
+        <v>1.024588816407183</v>
       </c>
       <c r="J14">
-        <v>1.022366927675308</v>
+        <v>0.9864665091392235</v>
       </c>
       <c r="K14">
-        <v>1.026346148475036</v>
+        <v>0.9978953173048294</v>
       </c>
       <c r="L14">
-        <v>1.020980697927719</v>
+        <v>0.9844964837955125</v>
       </c>
       <c r="M14">
-        <v>1.027815200622363</v>
+        <v>0.9150402888970336</v>
       </c>
       <c r="N14">
-        <v>1.01141943669072</v>
+        <v>0.9987087830612099</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015778650779648</v>
+        <v>0.9558449710824243</v>
       </c>
       <c r="D15">
-        <v>1.022826007115593</v>
+        <v>0.9832394868807872</v>
       </c>
       <c r="E15">
-        <v>1.017449610915355</v>
+        <v>0.9695812611887303</v>
       </c>
       <c r="F15">
-        <v>1.024453000423633</v>
+        <v>0.8997908737011415</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028824887245862</v>
+        <v>1.024942354572345</v>
       </c>
       <c r="J15">
-        <v>1.022457685711148</v>
+        <v>0.9870144161416099</v>
       </c>
       <c r="K15">
-        <v>1.026426633998766</v>
+        <v>0.9984108289298853</v>
       </c>
       <c r="L15">
-        <v>1.021070764868284</v>
+        <v>0.9850253053965352</v>
       </c>
       <c r="M15">
-        <v>1.028047462511792</v>
+        <v>0.9168028775650016</v>
       </c>
       <c r="N15">
-        <v>1.011450450733558</v>
+        <v>0.9988990697642154</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016531868754318</v>
+        <v>0.9603504718060646</v>
       </c>
       <c r="D16">
-        <v>1.02341141850924</v>
+        <v>0.9867806737840655</v>
       </c>
       <c r="E16">
-        <v>1.018092012281884</v>
+        <v>0.9732201802190101</v>
       </c>
       <c r="F16">
-        <v>1.025922367029785</v>
+        <v>0.910574118898661</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029057607813501</v>
+        <v>1.026948792084443</v>
       </c>
       <c r="J16">
-        <v>1.022985414702752</v>
+        <v>0.9901484251885279</v>
       </c>
       <c r="K16">
-        <v>1.026894405998582</v>
+        <v>1.001355387619331</v>
       </c>
       <c r="L16">
-        <v>1.02159458929802</v>
+        <v>0.9880522363654081</v>
       </c>
       <c r="M16">
-        <v>1.029396185559603</v>
+        <v>0.9267281914780993</v>
       </c>
       <c r="N16">
-        <v>1.01163071768895</v>
+        <v>0.9999874794905701</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017004025265852</v>
+        <v>0.9631151271983552</v>
       </c>
       <c r="D17">
-        <v>1.023778229617478</v>
+        <v>0.9889513691149624</v>
       </c>
       <c r="E17">
-        <v>1.018494814155665</v>
+        <v>0.9754558795131759</v>
       </c>
       <c r="F17">
-        <v>1.026841401640496</v>
+        <v>0.9170477229281281</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029202706503062</v>
+        <v>1.028165062127618</v>
       </c>
       <c r="J17">
-        <v>1.023315988532681</v>
+        <v>0.9920684393213854</v>
       </c>
       <c r="K17">
-        <v>1.027187223780863</v>
+        <v>1.003155934432848</v>
       </c>
       <c r="L17">
-        <v>1.021922817437518</v>
+        <v>0.9899083914929544</v>
       </c>
       <c r="M17">
-        <v>1.030239473679205</v>
+        <v>0.9326853279255485</v>
       </c>
       <c r="N17">
-        <v>1.011743576814379</v>
+        <v>1.000654233170522</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017279313516683</v>
+        <v>0.9647067652707112</v>
       </c>
       <c r="D18">
-        <v>1.023992040735529</v>
+        <v>0.9902003443194805</v>
       </c>
       <c r="E18">
-        <v>1.018729705331257</v>
+        <v>0.9767439725236906</v>
       </c>
       <c r="F18">
-        <v>1.027376515654036</v>
+        <v>0.9207286542606288</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029287024029014</v>
+        <v>1.028860264993571</v>
       </c>
       <c r="J18">
-        <v>1.023508643323138</v>
+        <v>0.9931727668164094</v>
       </c>
       <c r="K18">
-        <v>1.027357803294642</v>
+        <v>1.004190404114541</v>
       </c>
       <c r="L18">
-        <v>1.022114141217362</v>
+        <v>0.9909765844935184</v>
       </c>
       <c r="M18">
-        <v>1.030730379825314</v>
+        <v>0.9360720183204957</v>
       </c>
       <c r="N18">
-        <v>1.011809327619309</v>
+        <v>1.001037700206278</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01737316074371</v>
+        <v>0.9652460290746621</v>
       </c>
       <c r="D19">
-        <v>1.024064920563918</v>
+        <v>0.9906233964677527</v>
       </c>
       <c r="E19">
-        <v>1.018809787702368</v>
+        <v>0.9771805558629501</v>
       </c>
       <c r="F19">
-        <v>1.027558817137908</v>
+        <v>0.9219684570574047</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029315720637294</v>
+        <v>1.029094985625479</v>
       </c>
       <c r="J19">
-        <v>1.023574306038636</v>
+        <v>0.9935467527515318</v>
       </c>
       <c r="K19">
-        <v>1.027415929955435</v>
+        <v>1.004540544905883</v>
       </c>
       <c r="L19">
-        <v>1.022179356389397</v>
+        <v>0.9913384315868903</v>
       </c>
       <c r="M19">
-        <v>1.030897603027523</v>
+        <v>0.9372126126367959</v>
       </c>
       <c r="N19">
-        <v>1.011831733749115</v>
+        <v>1.001167557692485</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016953379030581</v>
+        <v>0.9628206977947541</v>
       </c>
       <c r="D20">
-        <v>1.023738889138539</v>
+        <v>0.988720271186973</v>
       </c>
       <c r="E20">
-        <v>1.018451603180413</v>
+        <v>0.9752176802668723</v>
       </c>
       <c r="F20">
-        <v>1.026742895841521</v>
+        <v>0.9163631936413486</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02918717151093</v>
+        <v>1.028036060758237</v>
       </c>
       <c r="J20">
-        <v>1.023280538011105</v>
+        <v>0.9918640718857747</v>
       </c>
       <c r="K20">
-        <v>1.027155829589059</v>
+        <v>1.002964403800676</v>
       </c>
       <c r="L20">
-        <v>1.021887614736743</v>
+        <v>0.989710758714028</v>
       </c>
       <c r="M20">
-        <v>1.030149097451547</v>
+        <v>0.9320554693672326</v>
       </c>
       <c r="N20">
-        <v>1.011731476176558</v>
+        <v>1.00058326613182</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015587292335274</v>
+        <v>0.9546808519792378</v>
       </c>
       <c r="D21">
-        <v>1.022677232778429</v>
+        <v>0.9823237273362917</v>
       </c>
       <c r="E21">
-        <v>1.017286440389754</v>
+        <v>0.9686419489753803</v>
       </c>
       <c r="F21">
-        <v>1.024079061711569</v>
+        <v>0.8969542986336042</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028765521490623</v>
+        <v>1.024418895683801</v>
       </c>
       <c r="J21">
-        <v>1.022323541448996</v>
+        <v>0.9862036301466739</v>
       </c>
       <c r="K21">
-        <v>1.026307668959441</v>
+        <v>0.9976479029819584</v>
       </c>
       <c r="L21">
-        <v>1.020937644090503</v>
+        <v>0.9842428006660916</v>
       </c>
       <c r="M21">
-        <v>1.027704137205098</v>
+        <v>0.9141915898638431</v>
       </c>
       <c r="N21">
-        <v>1.011404609418946</v>
+        <v>0.9986174858507626</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014727328638965</v>
+        <v>0.9493456798425428</v>
       </c>
       <c r="D22">
-        <v>1.02200840613832</v>
+        <v>0.9781220809984879</v>
       </c>
       <c r="E22">
-        <v>1.016553323961247</v>
+        <v>0.9643416893163463</v>
       </c>
       <c r="F22">
-        <v>1.022395373499426</v>
+        <v>0.8836623534761224</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028497537050144</v>
+        <v>1.021992142331414</v>
       </c>
       <c r="J22">
-        <v>1.021720341830101</v>
+        <v>0.9824821657509719</v>
       </c>
       <c r="K22">
-        <v>1.025772422492601</v>
+        <v>0.9941397697250514</v>
       </c>
       <c r="L22">
-        <v>1.020339199638171</v>
+        <v>0.9806542602878343</v>
       </c>
       <c r="M22">
-        <v>1.026157849076502</v>
+        <v>0.9019538079289761</v>
       </c>
       <c r="N22">
-        <v>1.011198383957277</v>
+        <v>0.9973250641734994</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015183313018073</v>
+        <v>0.9521961528878695</v>
       </c>
       <c r="D23">
-        <v>1.022363090372079</v>
+        <v>0.9803679359506842</v>
       </c>
       <c r="E23">
-        <v>1.016942014520878</v>
+        <v>0.9666382948034199</v>
       </c>
       <c r="F23">
-        <v>1.023288781711939</v>
+        <v>0.8908255734600532</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028639874725279</v>
+        <v>1.023294468611772</v>
       </c>
       <c r="J23">
-        <v>1.022040252638051</v>
+        <v>0.9844716338497541</v>
       </c>
       <c r="K23">
-        <v>1.026056355226079</v>
+        <v>0.9960165095067341</v>
       </c>
       <c r="L23">
-        <v>1.02065655750343</v>
+        <v>0.9825720271105205</v>
       </c>
       <c r="M23">
-        <v>1.02697843818906</v>
+        <v>0.9085491892521194</v>
       </c>
       <c r="N23">
-        <v>1.01130777582254</v>
+        <v>0.9980159722396867</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016976264232682</v>
+        <v>0.9629538021836023</v>
       </c>
       <c r="D24">
-        <v>1.023756665851562</v>
+        <v>0.9888247471508194</v>
       </c>
       <c r="E24">
-        <v>1.018471128534563</v>
+        <v>0.9753253613272651</v>
       </c>
       <c r="F24">
-        <v>1.026787409284736</v>
+        <v>0.9166727942823962</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029194192081861</v>
+        <v>1.028094394646843</v>
       </c>
       <c r="J24">
-        <v>1.023296557080785</v>
+        <v>0.9919564646694855</v>
       </c>
       <c r="K24">
-        <v>1.027170015941063</v>
+        <v>1.003050996712243</v>
       </c>
       <c r="L24">
-        <v>1.021903521711966</v>
+        <v>0.989800104974347</v>
       </c>
       <c r="M24">
-        <v>1.030189937572576</v>
+        <v>0.9323403452017682</v>
       </c>
       <c r="N24">
-        <v>1.011736944175078</v>
+        <v>1.000615349814975</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019052482822012</v>
+        <v>0.9746239159911972</v>
       </c>
       <c r="D25">
-        <v>1.025368213001057</v>
+        <v>0.9979718035657217</v>
       </c>
       <c r="E25">
-        <v>1.020243382105151</v>
+        <v>0.9847863241418722</v>
       </c>
       <c r="F25">
-        <v>1.030810529807987</v>
+        <v>0.9429828821361802</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029825061129775</v>
+        <v>1.03311162659182</v>
       </c>
       <c r="J25">
-        <v>1.024748034211153</v>
+        <v>1.000036541382993</v>
       </c>
       <c r="K25">
-        <v>1.028453891410406</v>
+        <v>1.01060168647628</v>
       </c>
       <c r="L25">
-        <v>1.023345617648376</v>
+        <v>0.9976254950832</v>
       </c>
       <c r="M25">
-        <v>1.03387882258319</v>
+        <v>0.9565358812663374</v>
       </c>
       <c r="N25">
-        <v>1.01223191400704</v>
+        <v>1.003420337664433</v>
       </c>
     </row>
   </sheetData>
